--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.355871</v>
+        <v>0.420981</v>
       </c>
       <c r="H2">
-        <v>1.067613</v>
+        <v>1.262943</v>
       </c>
       <c r="I2">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414047</v>
       </c>
       <c r="J2">
-        <v>0.007561690114054128</v>
+        <v>0.005858863598414048</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06341066666666666</v>
+        <v>0.499715</v>
       </c>
       <c r="N2">
-        <v>0.190232</v>
+        <v>1.499145</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.8251882089313166</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8251882089313167</v>
       </c>
       <c r="Q2">
-        <v>0.02256601735733333</v>
+        <v>0.210370520415</v>
       </c>
       <c r="R2">
-        <v>0.203094156216</v>
+        <v>1.893334683735</v>
       </c>
       <c r="S2">
-        <v>0.007561690114054128</v>
+        <v>0.004834665159148177</v>
       </c>
       <c r="T2">
-        <v>0.007561690114054128</v>
+        <v>0.004834665159148177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,25 +593,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.705585666666667</v>
+        <v>0.420981</v>
       </c>
       <c r="H3">
-        <v>17.116757</v>
+        <v>1.262943</v>
       </c>
       <c r="I3">
-        <v>0.1212345786268683</v>
+        <v>0.005858863598414047</v>
       </c>
       <c r="J3">
-        <v>0.1212345786268683</v>
+        <v>0.005858863598414048</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,33 +620,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06341066666666666</v>
+        <v>0.105862</v>
       </c>
       <c r="N3">
-        <v>0.190232</v>
+        <v>0.317586</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.1748117910686833</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1748117910686833</v>
       </c>
       <c r="Q3">
-        <v>0.3617949908471111</v>
+        <v>0.044565890622</v>
       </c>
       <c r="R3">
-        <v>3.256154917624</v>
+        <v>0.401093015598</v>
       </c>
       <c r="S3">
-        <v>0.1212345786268683</v>
+        <v>0.00102419843926587</v>
       </c>
       <c r="T3">
-        <v>0.1212345786268683</v>
+        <v>0.00102419843926587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.004564</v>
+        <v>5.705585666666667</v>
       </c>
       <c r="H4">
-        <v>36.013692</v>
+        <v>17.116757</v>
       </c>
       <c r="I4">
-        <v>0.2550778032554776</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="J4">
-        <v>0.2550778032554776</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06341066666666666</v>
+        <v>0.499715</v>
       </c>
       <c r="N4">
-        <v>0.190232</v>
+        <v>1.499145</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.8251882089313166</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8251882089313167</v>
       </c>
       <c r="Q4">
-        <v>0.7612174062826665</v>
+        <v>2.851166741418333</v>
       </c>
       <c r="R4">
-        <v>6.850956656544</v>
+        <v>25.660500672765</v>
       </c>
       <c r="S4">
-        <v>0.2550778032554776</v>
+        <v>0.06552456342487797</v>
       </c>
       <c r="T4">
-        <v>0.2550778032554776</v>
+        <v>0.06552456342487799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.779231</v>
+        <v>5.705585666666667</v>
       </c>
       <c r="H5">
-        <v>5.337693</v>
+        <v>17.116757</v>
       </c>
       <c r="I5">
-        <v>0.03780581576840664</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="J5">
-        <v>0.03780581576840664</v>
+        <v>0.07940559828131502</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06341066666666666</v>
+        <v>0.105862</v>
       </c>
       <c r="N5">
-        <v>0.190232</v>
+        <v>0.317586</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.1748117910686833</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1748117910686833</v>
       </c>
       <c r="Q5">
-        <v>0.112822223864</v>
+        <v>0.6040047098446668</v>
       </c>
       <c r="R5">
-        <v>1.015400014776</v>
+        <v>5.436042388602001</v>
       </c>
       <c r="S5">
-        <v>0.03780581576840664</v>
+        <v>0.01388103485643704</v>
       </c>
       <c r="T5">
-        <v>0.03780581576840664</v>
+        <v>0.01388103485643704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,46 +788,356 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.21711066666667</v>
+        <v>37.57387866666667</v>
       </c>
       <c r="H6">
-        <v>81.651332</v>
+        <v>112.721636</v>
       </c>
       <c r="I6">
-        <v>0.5783201122351933</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="J6">
-        <v>0.5783201122351933</v>
+        <v>0.5229220082886389</v>
       </c>
       <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.499715</v>
+      </c>
+      <c r="N6">
+        <v>1.499145</v>
+      </c>
+      <c r="O6">
+        <v>0.8251882089313166</v>
+      </c>
+      <c r="P6">
+        <v>0.8251882089313167</v>
+      </c>
+      <c r="Q6">
+        <v>18.77623077791333</v>
+      </c>
+      <c r="R6">
+        <v>168.98607700122</v>
+      </c>
+      <c r="S6">
+        <v>0.431509075430469</v>
+      </c>
+      <c r="T6">
+        <v>0.4315090754304691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>37.57387866666667</v>
+      </c>
+      <c r="H7">
+        <v>112.721636</v>
+      </c>
+      <c r="I7">
+        <v>0.5229220082886389</v>
+      </c>
+      <c r="J7">
+        <v>0.5229220082886389</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M6">
-        <v>0.06341066666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.190232</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.725855132113778</v>
-      </c>
-      <c r="R6">
-        <v>15.532696189024</v>
-      </c>
-      <c r="S6">
-        <v>0.5783201122351933</v>
-      </c>
-      <c r="T6">
-        <v>0.5783201122351933</v>
+      <c r="M7">
+        <v>0.105862</v>
+      </c>
+      <c r="N7">
+        <v>0.317586</v>
+      </c>
+      <c r="O7">
+        <v>0.1748117910686833</v>
+      </c>
+      <c r="P7">
+        <v>0.1748117910686833</v>
+      </c>
+      <c r="Q7">
+        <v>3.977645943410667</v>
+      </c>
+      <c r="R7">
+        <v>35.798813490696</v>
+      </c>
+      <c r="S7">
+        <v>0.0914129328581698</v>
+      </c>
+      <c r="T7">
+        <v>0.0914129328581698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.764088</v>
+      </c>
+      <c r="H8">
+        <v>5.292263999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.02455111030568848</v>
+      </c>
+      <c r="J8">
+        <v>0.02455111030568848</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.499715</v>
+      </c>
+      <c r="N8">
+        <v>1.499145</v>
+      </c>
+      <c r="O8">
+        <v>0.8251882089313166</v>
+      </c>
+      <c r="P8">
+        <v>0.8251882089313167</v>
+      </c>
+      <c r="Q8">
+        <v>0.8815412349199999</v>
+      </c>
+      <c r="R8">
+        <v>7.933871114279999</v>
+      </c>
+      <c r="S8">
+        <v>0.02025928674042626</v>
+      </c>
+      <c r="T8">
+        <v>0.02025928674042626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.764088</v>
+      </c>
+      <c r="H9">
+        <v>5.292263999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.02455111030568848</v>
+      </c>
+      <c r="J9">
+        <v>0.02455111030568848</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.105862</v>
+      </c>
+      <c r="N9">
+        <v>0.317586</v>
+      </c>
+      <c r="O9">
+        <v>0.1748117910686833</v>
+      </c>
+      <c r="P9">
+        <v>0.1748117910686833</v>
+      </c>
+      <c r="Q9">
+        <v>0.186749883856</v>
+      </c>
+      <c r="R9">
+        <v>1.680748954704</v>
+      </c>
+      <c r="S9">
+        <v>0.00429182356526221</v>
+      </c>
+      <c r="T9">
+        <v>0.00429182356526221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.389162</v>
+      </c>
+      <c r="H10">
+        <v>79.167486</v>
+      </c>
+      <c r="I10">
+        <v>0.3672624195259435</v>
+      </c>
+      <c r="J10">
+        <v>0.3672624195259436</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.499715</v>
+      </c>
+      <c r="N10">
+        <v>1.499145</v>
+      </c>
+      <c r="O10">
+        <v>0.8251882089313166</v>
+      </c>
+      <c r="P10">
+        <v>0.8251882089313167</v>
+      </c>
+      <c r="Q10">
+        <v>13.18706008883</v>
+      </c>
+      <c r="R10">
+        <v>118.68354079947</v>
+      </c>
+      <c r="S10">
+        <v>0.3030606181763951</v>
+      </c>
+      <c r="T10">
+        <v>0.3030606181763952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.389162</v>
+      </c>
+      <c r="H11">
+        <v>79.167486</v>
+      </c>
+      <c r="I11">
+        <v>0.3672624195259435</v>
+      </c>
+      <c r="J11">
+        <v>0.3672624195259436</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.105862</v>
+      </c>
+      <c r="N11">
+        <v>0.317586</v>
+      </c>
+      <c r="O11">
+        <v>0.1748117910686833</v>
+      </c>
+      <c r="P11">
+        <v>0.1748117910686833</v>
+      </c>
+      <c r="Q11">
+        <v>2.793609467644</v>
+      </c>
+      <c r="R11">
+        <v>25.142485208796</v>
+      </c>
+      <c r="S11">
+        <v>0.06420180134954834</v>
+      </c>
+      <c r="T11">
+        <v>0.06420180134954835</v>
       </c>
     </row>
   </sheetData>
